--- a/Accounts-Schedules/تدريب والمارت 23-10-2025.xlsx
+++ b/Accounts-Schedules/تدريب والمارت 23-10-2025.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$53:$I$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="185">
   <si>
     <t>Here is the list of trainees scheduled for training at Walmart on Thursday, October 23rd, from 7 PM to 4 AM.</t>
   </si>
@@ -391,196 +391,202 @@
     <t>Walmart Training</t>
   </si>
   <si>
+    <t>عبد العزيز مجدي</t>
+  </si>
+  <si>
+    <t>عبد العزيز مأمون</t>
+  </si>
+  <si>
+    <t>أحمد السيد علي أحمد</t>
+  </si>
+  <si>
+    <t>احمد سيف</t>
+  </si>
+  <si>
+    <t>و - الشروق</t>
+  </si>
+  <si>
+    <t>امجد عادل</t>
+  </si>
+  <si>
+    <t>عمرو يوسف</t>
+  </si>
+  <si>
+    <t>أروى محمد</t>
+  </si>
+  <si>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>اية الحج</t>
+  </si>
+  <si>
+    <t>كريستوفر سيبيت أودونجو</t>
+  </si>
+  <si>
+    <t>فاطمة محمد حسن</t>
+  </si>
+  <si>
+    <t>فراس هاني</t>
+  </si>
+  <si>
+    <t>هنا حسن</t>
+  </si>
+  <si>
+    <t>حسن السيد</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
+  </si>
+  <si>
+    <t>هيا جميل</t>
+  </si>
+  <si>
+    <t>حازم حسام</t>
+  </si>
+  <si>
+    <t>ارابيلا</t>
+  </si>
+  <si>
+    <t>هبة علي</t>
+  </si>
+  <si>
+    <t>جانا حاتم</t>
+  </si>
+  <si>
+    <t>؟</t>
+  </si>
+  <si>
+    <t>جوري أمير فاروق عبدالعال</t>
+  </si>
+  <si>
+    <t>كاوا تشول</t>
+  </si>
+  <si>
+    <t>خالد عمر</t>
+  </si>
+  <si>
+    <t>مريوطية</t>
+  </si>
+  <si>
+    <t>لينا بشرى حسبو</t>
+  </si>
+  <si>
+    <t>ليندا عباس</t>
+  </si>
+  <si>
+    <t>ي - بدر</t>
+  </si>
+  <si>
+    <t>مدخل بدر</t>
+  </si>
+  <si>
+    <t>لوكا اميل</t>
+  </si>
+  <si>
+    <t>ابن الحكم</t>
+  </si>
+  <si>
+    <t>محمود عبدالله علي</t>
+  </si>
+  <si>
+    <t>محمود عاطف</t>
+  </si>
+  <si>
+    <t>منال كمبال</t>
+  </si>
+  <si>
+    <t>مريم يسري</t>
+  </si>
+  <si>
+    <t>مروان سلامة</t>
+  </si>
+  <si>
+    <t>Has a Car</t>
+  </si>
+  <si>
+    <t>مؤمن صلاح</t>
+  </si>
+  <si>
+    <t>محمد احمد</t>
+  </si>
+  <si>
+    <t>محمد أيمن</t>
+  </si>
+  <si>
+    <t>وتر واي</t>
+  </si>
+  <si>
+    <t>محمد حكيم</t>
+  </si>
+  <si>
+    <t>محمد نبيل</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>مهند هاني</t>
+  </si>
+  <si>
+    <t>مصطفى محمد</t>
+  </si>
+  <si>
+    <t>مصطفى ياسر</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>مصعب صديق</t>
+  </si>
+  <si>
+    <t>مصطفى باستا</t>
+  </si>
+  <si>
+    <t>نور الدين محمود</t>
+  </si>
+  <si>
+    <t>امنية كمال</t>
+  </si>
+  <si>
     <t>روان فريد</t>
   </si>
   <si>
-    <t>؟</t>
-  </si>
-  <si>
     <t>Rawan Fareed</t>
   </si>
   <si>
-    <t>جانا حاتم</t>
-  </si>
-  <si>
-    <t>مروان سلامة</t>
-  </si>
-  <si>
-    <t>Has a Car</t>
-  </si>
-  <si>
-    <t>لوكا اميل</t>
-  </si>
-  <si>
-    <t>ابن الحكم</t>
-  </si>
-  <si>
-    <t>لينا بشرى حسبو</t>
-  </si>
-  <si>
-    <t>مؤمن صلاح</t>
-  </si>
-  <si>
-    <t>كاوا تشول</t>
-  </si>
-  <si>
-    <t>امنية كمال</t>
-  </si>
-  <si>
-    <t>محمد نبيل</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>جوري أمير فاروق عبدالعال</t>
-  </si>
-  <si>
-    <t>محمد احمد</t>
-  </si>
-  <si>
-    <t>محمود عاطف</t>
+    <t>صلاح حسن صلاح</t>
   </si>
   <si>
     <t>سيف الدين خالد</t>
   </si>
   <si>
-    <t>كريستوفر سيبيت أودونجو</t>
-  </si>
-  <si>
-    <t>مصطفى محمد</t>
+    <t>سيف الله احمد</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>يوسف قاسم</t>
+  </si>
+  <si>
+    <t>يوسف حسن</t>
+  </si>
+  <si>
+    <t>يوسف طارق</t>
+  </si>
+  <si>
+    <t>يوسف عبد الله</t>
   </si>
   <si>
     <t>زياد مصطفى</t>
   </si>
   <si>
-    <t>مصطفى باستا</t>
-  </si>
-  <si>
-    <t>هنا حسن</t>
-  </si>
-  <si>
-    <t>سيف الله احمد</t>
-  </si>
-  <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>خالد عمر</t>
-  </si>
-  <si>
-    <t>مريوطية</t>
-  </si>
-  <si>
-    <t>نور الدين محمود</t>
-  </si>
-  <si>
-    <t>صلاح حسن صلاح</t>
-  </si>
-  <si>
-    <t>يوسف طارق</t>
-  </si>
-  <si>
-    <t>مهند هاني</t>
-  </si>
-  <si>
-    <t>حازم حسام</t>
-  </si>
-  <si>
-    <t>ارابيلا</t>
-  </si>
-  <si>
-    <t>محمد أيمن</t>
-  </si>
-  <si>
-    <t>وتر واي</t>
-  </si>
-  <si>
-    <t>أروى محمد</t>
-  </si>
-  <si>
-    <t>م - المقطم</t>
-  </si>
-  <si>
-    <t>فراس هاني</t>
-  </si>
-  <si>
-    <t>عبد العزيز مأمون</t>
-  </si>
-  <si>
-    <t>يوسف قاسم</t>
-  </si>
-  <si>
-    <t>أحمد السيد علي أحمد</t>
-  </si>
-  <si>
-    <t>فاطمة محمد حسن</t>
-  </si>
-  <si>
-    <t>هبة علي</t>
-  </si>
-  <si>
-    <t>محمود عبدالله علي</t>
-  </si>
-  <si>
-    <t>امجد عادل</t>
-  </si>
-  <si>
-    <t>يوسف عبد الله</t>
-  </si>
-  <si>
-    <t>عبد العزيز مجدي</t>
-  </si>
-  <si>
-    <t>اية الحج</t>
-  </si>
-  <si>
-    <t>مصعب صديق</t>
-  </si>
-  <si>
-    <t>محمد حكيم</t>
-  </si>
-  <si>
-    <t>عمرو يوسف</t>
-  </si>
-  <si>
-    <t>و - الشروق</t>
-  </si>
-  <si>
-    <t>احمد سيف</t>
-  </si>
-  <si>
-    <t>حسن السيد</t>
-  </si>
-  <si>
-    <t>و - مدينتي</t>
-  </si>
-  <si>
-    <t>هيا جميل</t>
-  </si>
-  <si>
-    <t>منال كمبال</t>
-  </si>
-  <si>
-    <t>مريم يسري</t>
-  </si>
-  <si>
-    <t>يوسف حسن</t>
-  </si>
-  <si>
-    <t>مصطفى ياسر</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
-  </si>
-  <si>
-    <t>ليندا عباس</t>
-  </si>
-  <si>
-    <t>ي - بدر</t>
-  </si>
-  <si>
-    <t>مدخل بدر</t>
+    <t>مصطفى عبد الباسط</t>
+  </si>
+  <si>
+    <t>Mustafa Abdelbaset</t>
   </si>
 </sst>
 </file>
@@ -821,7 +827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +837,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1384,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1390,16 +1408,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1408,89 +1426,89 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,21 +1539,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,79 +1569,91 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2174,873 +2207,873 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.2727272727273" style="25" customWidth="1"/>
-    <col min="2" max="2" width="39" style="25" customWidth="1"/>
-    <col min="3" max="3" width="16.1636363636364" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.7" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.3636363636364" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="25"/>
+    <col min="1" max="1" width="24.2727272727273" style="32" customWidth="1"/>
+    <col min="2" max="2" width="39" style="32" customWidth="1"/>
+    <col min="3" max="3" width="16.1636363636364" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.7" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.3636363636364" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="37">
         <v>1099361043</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="40">
         <v>1223384690</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="37">
         <v>1090642201</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="37">
         <v>1207053881</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="37">
         <v>1002365133</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="37">
         <v>1153436458</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="37">
         <v>1150350346</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="37">
         <v>1555493119</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="37">
         <v>1030215018</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="37">
         <v>1026876551</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="37">
         <v>1010808721</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:5">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="43">
         <v>1095204998</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="38">
         <v>1116231956</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="37">
         <v>1080299044</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="38" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:5">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="38">
         <v>1226167723</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:5">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:5">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="37">
         <v>1207169781</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:5">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="38">
         <v>1129574541</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:5">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="38">
         <v>1004402706</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:5">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="46">
         <v>1149475370</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:5">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="37">
         <v>1122706070</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:5">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:5">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="38">
         <v>1148811379</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:5">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="37">
         <v>1128592141</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:5">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="38">
         <v>1024731489</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:5">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="37">
         <v>1025470192</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:5">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="37">
         <v>1552456793</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:5">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="37">
         <v>1208509996</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:5">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="37">
         <v>1556577514</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:5">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="37">
         <v>1021293302</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:5">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="37">
         <v>1277360666</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:5">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="37">
         <v>1093443771</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:5">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="37">
         <v>1090598043</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="1:5">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="37">
         <v>1067004189</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:5">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="37">
         <v>1025422387</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="1:5">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="37">
         <v>1023850840</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="1:5">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="38">
         <v>1070390659</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:5">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="37">
         <v>1144462771</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:5">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="37">
         <v>1094190472</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:5">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="41">
         <v>1210325251</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:5">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="41">
         <v>1095617866</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="40" t="s">
+    <row r="48" ht="15.25" spans="1:5">
+      <c r="A48" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="41">
         <v>1008333606</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="41" t="s">
+    <row r="49" ht="15.25" spans="1:5">
+      <c r="A49" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="42">
+      <c r="B49" s="41">
         <v>1153210480</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="41" t="s">
+    <row r="50" ht="15.25" spans="1:5">
+      <c r="A50" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="41">
         <v>1505849880</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="41" t="s">
+    <row r="51" ht="15.25" spans="1:5">
+      <c r="A51" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="42">
+      <c r="B51" s="41">
         <v>1066953383</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="41" t="s">
+    <row r="52" ht="15.25" spans="1:5">
+      <c r="A52" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="41" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:E48" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A3:E48">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:E52" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A3:E52">
       <sortCondition ref="A3"/>
     </sortState>
     <extLst/>
@@ -3056,16 +3089,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I51"/>
+  <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="B3:H51"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="8.27272727272727" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.27272727272727" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.45454545454546" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.9090909090909" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.7272727272727" style="3" customWidth="1"/>
@@ -3103,7 +3136,7 @@
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3115,7 +3148,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D3" s="9">
-        <v>1150350346</v>
+        <v>1099361043</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>118</v>
@@ -3124,13 +3157,13 @@
         <v>119</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -3140,23 +3173,23 @@
       <c r="C4" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D4" s="9">
-        <v>1080299044</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="D4" s="12">
+        <v>1223384690</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>46</v>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -3166,23 +3199,23 @@
       <c r="C5" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D5" s="9">
-        <v>1128592141</v>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>73</v>
+        <v>121</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -3192,49 +3225,49 @@
       <c r="C6" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D6" s="10">
-        <v>1004402706</v>
+      <c r="D6" s="9">
+        <v>1090642201</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>64</v>
+      <c r="F6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1129574541</v>
+      <c r="B7" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>58</v>
+      <c r="F7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -3244,23 +3277,23 @@
       <c r="C8" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D8" s="10">
-        <v>1024731489</v>
+      <c r="D8" s="9">
+        <v>1207053881</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>75</v>
+      <c r="F8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -3270,23 +3303,23 @@
       <c r="C9" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>51</v>
+      <c r="D9" s="12">
+        <v>1002365133</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -3296,23 +3329,23 @@
       <c r="C10" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>113</v>
+      <c r="D10" s="11">
+        <v>1153210480</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>112</v>
+      <c r="F10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -3322,23 +3355,23 @@
       <c r="C11" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D11" s="9">
-        <v>1208509996</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>80</v>
+      <c r="D11" s="12">
+        <v>1153436458</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -3348,23 +3381,23 @@
       <c r="C12" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D12" s="10">
-        <v>1226167723</v>
+      <c r="D12" s="9">
+        <v>1555493119</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>48</v>
+      <c r="F12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -3374,23 +3407,23 @@
       <c r="C13" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D13" s="9">
-        <v>1025470192</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>76</v>
+      <c r="D13" s="12">
+        <v>1030215018</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -3400,23 +3433,23 @@
       <c r="C14" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D14" s="9">
-        <v>1122706070</v>
+      <c r="D14" s="11">
+        <v>1008333606</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>67</v>
+      <c r="H14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -3427,22 +3460,22 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D15" s="9">
-        <v>1067004189</v>
+        <v>1026876551</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>97</v>
+        <v>133</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -3452,23 +3485,23 @@
       <c r="C16" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D16" s="9">
-        <v>1153436458</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>28</v>
+      <c r="D16" s="12">
+        <v>1010808721</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -3478,23 +3511,23 @@
       <c r="C17" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D17" s="9">
-        <v>1021293302</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>86</v>
+      <c r="D17" s="13">
+        <v>1095204998</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -3504,23 +3537,23 @@
       <c r="C18" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D18" s="10">
-        <v>1210325251</v>
+      <c r="D18" s="11">
+        <v>1116231956</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>104</v>
+      <c r="F18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -3530,23 +3563,23 @@
       <c r="C19" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D19" s="10">
-        <v>1095617866</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="D19" s="12">
+        <v>1080299044</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>106</v>
+      <c r="H19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -3556,23 +3589,23 @@
       <c r="C20" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D20" s="10">
-        <v>1008333606</v>
+      <c r="D20" s="11">
+        <v>1226167723</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>107</v>
+      <c r="G20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -3582,8 +3615,8 @@
       <c r="C21" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D21" s="9">
-        <v>1025422387</v>
+      <c r="D21" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>118</v>
@@ -3591,14 +3624,14 @@
       <c r="F21" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>98</v>
+      <c r="G21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -3615,15 +3648,15 @@
         <v>118</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3634,23 +3667,23 @@
       <c r="C23" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D23" s="9">
-        <v>1093443771</v>
+      <c r="D23" s="11">
+        <v>1129574541</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>92</v>
+      <c r="F23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -3660,23 +3693,23 @@
       <c r="C24" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D24" s="9">
-        <v>1090598043</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="D24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>94</v>
+      <c r="H24" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -3686,23 +3719,23 @@
       <c r="C25" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D25" s="9">
-        <v>1144462771</v>
+      <c r="D25" s="11">
+        <v>1004402706</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>102</v>
+      <c r="F25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -3712,23 +3745,23 @@
       <c r="C26" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D26" s="9">
-        <v>1556577514</v>
+      <c r="D26" s="11">
+        <v>1149475370</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>83</v>
+      <c r="F26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -3738,23 +3771,23 @@
       <c r="C27" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D27" s="10">
-        <v>1095204998</v>
+      <c r="D27" s="9">
+        <v>1122706070</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>41</v>
+      <c r="F27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -3764,23 +3797,23 @@
       <c r="C28" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D28" s="9">
-        <v>1552456793</v>
+      <c r="D28" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>78</v>
+      <c r="G28" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -3790,23 +3823,23 @@
       <c r="C29" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D29" s="9">
-        <v>1002365133</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="D29" s="13">
+        <v>1148811379</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>25</v>
+      <c r="G29" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -3816,23 +3849,23 @@
       <c r="C30" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D30" s="9">
-        <v>1030215018</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="12">
+        <v>1128592141</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>36</v>
+      <c r="H30" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -3842,23 +3875,23 @@
       <c r="C31" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D31" s="9">
-        <v>1223384690</v>
+      <c r="D31" s="11">
+        <v>1024731489</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>10</v>
+      <c r="G31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -3869,7 +3902,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D32" s="9">
-        <v>1023850840</v>
+        <v>1025470192</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>118</v>
@@ -3877,14 +3910,14 @@
       <c r="F32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>100</v>
+      <c r="G32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -3894,8 +3927,8 @@
       <c r="C33" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>13</v>
+      <c r="D33" s="9">
+        <v>1552456793</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>118</v>
@@ -3903,14 +3936,14 @@
       <c r="F33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>12</v>
+      <c r="G33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:9">
@@ -3920,23 +3953,23 @@
       <c r="C34" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D34" s="9">
-        <v>1555493119</v>
+      <c r="D34" s="11">
+        <v>1066953383</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="F34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>34</v>
+      <c r="I34" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -3946,23 +3979,23 @@
       <c r="C35" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D35" s="10">
-        <v>1116231956</v>
+      <c r="D35" s="9">
+        <v>1208509996</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>44</v>
+      <c r="F35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -3972,49 +4005,49 @@
       <c r="C36" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D36" s="10">
-        <v>1149475370</v>
+      <c r="D36" s="9">
+        <v>1556577514</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>66</v>
+      <c r="F36" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="11">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>19</v>
+      <c r="B37" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1021293302</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -4024,23 +4057,23 @@
       <c r="C38" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D38" s="9">
-        <v>1094190472</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>103</v>
+      <c r="D38" s="12">
+        <v>1277360666</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -4050,23 +4083,23 @@
       <c r="C39" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D39" s="9">
-        <v>1099361043</v>
+      <c r="D39" s="11">
+        <v>1505849880</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="14" t="s">
+      <c r="F39" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>6</v>
+      <c r="H39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:9">
@@ -4076,23 +4109,23 @@
       <c r="C40" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D40" s="10">
-        <v>1153210480</v>
+      <c r="D40" s="11">
+        <v>1095617866</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>109</v>
+      <c r="F40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="2:9">
@@ -4102,23 +4135,23 @@
       <c r="C41" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D41" s="10">
-        <v>1505849880</v>
+      <c r="D41" s="9">
+        <v>1093443771</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>110</v>
+      <c r="F41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -4128,23 +4161,23 @@
       <c r="C42" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D42" s="10">
-        <v>1066953383</v>
+      <c r="D42" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>111</v>
+      <c r="F42" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -4154,237 +4187,1115 @@
       <c r="C43" s="8">
         <v>0.166666666666667</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="12">
+        <v>1150350346</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1090598043</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D45" s="20">
+        <v>1067004189</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1025422387</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1023850840</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1070390659</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D49" s="18">
+        <v>1144462771</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1094190472</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="16">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1210325251</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1153210480</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1226167723</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1026876551</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1090598043</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1099361043</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1555493119</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1129574541</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1025470192</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1066953383</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1208509996</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1122706070</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1095617866</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1021293302</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1505849880</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1024731489</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1116231956</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1008333606</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1070390659</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1023850840</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="31">
+        <v>10344748</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="3">
         <v>1207053881</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="G90" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="31">
+        <v>10344749</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1552456793</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="31">
+        <v>10344751</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1556577514</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="31">
+        <v>10344752</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1144462771</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="31">
+        <v>10344753</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1149475370</v>
+      </c>
+      <c r="G94" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="31">
+        <v>10344755</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1004402706</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="31">
+        <v>10344757</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="F96" s="3">
+        <v>1093443771</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="31">
+        <v>10344762</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="31">
+        <v>10344765</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1207169781</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="31">
+        <v>10344767</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="31">
+        <v>10344770</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C44" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="D100" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100" s="3">
         <v>1090642201</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="23" t="s">
+      <c r="G100" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C45" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D45" s="17">
-        <v>1026876551</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" ht="15.25" spans="2:9">
-      <c r="B46" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C46" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D46" s="17">
-        <v>1010808721</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" ht="15.25" spans="2:9">
-      <c r="B47" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C47" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" ht="15.25" spans="2:9">
-      <c r="B48" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C48" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D48" s="18">
-        <v>1148811379</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" ht="15.25" spans="2:9">
-      <c r="B49" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C49" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D49" s="18">
-        <v>1070390659</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" ht="15.25" spans="2:9">
-      <c r="B50" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C50" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D50" s="17">
-        <v>1277360666</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" ht="15.25" spans="2:9">
-      <c r="B51" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C51" s="16">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I51" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I51">
-      <sortCondition ref="G2"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B53:I86" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B54:I86">
+      <sortCondition ref="B53"/>
     </sortState>
     <extLst/>
   </autoFilter>
